--- a/src/test/java/resource/template.xlsx
+++ b/src/test/java/resource/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,21 +40,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sernums</t>
-  </si>
-  <si>
-    <t>datas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultStyles</t>
+    <t>$data_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$serial_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$default_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$appoint_line_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$single_line_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$double_line_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +115,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +155,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -219,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -236,6 +282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,9 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,33 +610,35 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="11" width="9" style="6"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="6" customWidth="1"/>
+    <col min="6" max="11" width="9" style="6"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
@@ -596,31 +653,33 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -631,7 +690,9 @@
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -644,7 +705,9 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
